--- a/data/raw/sales/Week 5/White_Mulberry/other_channels.xlsx
+++ b/data/raw/sales/Week 5/White_Mulberry/other_channels.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 4\White_Mulberry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 5\White_Mulberry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B2C87-281E-4F4F-8FA2-BB34B955990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73ADF66-1E0E-4A7B-BC59-04F62E693161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00DB3424-A17B-4A18-BC6A-329A1F1119CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="1p Sales" sheetId="9" r:id="rId1"/>
+    <sheet name="BI Worldwide" sheetId="6" r:id="rId1"/>
+    <sheet name="1p Sales" sheetId="9" r:id="rId2"/>
+    <sheet name="B2B" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1p Sales'!$C$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1p Sales'!$C$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">B2B!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BI Worldwide'!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,17 +41,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Brand</t>
   </si>
   <si>
+    <t>SKU</t>
+  </si>
+  <si>
     <t>Sale Amount</t>
   </si>
   <si>
     <t>Qty</t>
   </si>
   <si>
+    <t>Model</t>
+  </si>
+  <si>
     <t>ASIN</t>
   </si>
   <si>
@@ -81,53 +91,74 @@
     <t>White Mulberry |DIY| Woodcraft - Premium Wooden Arm | Desk Mounted Monitor arm 15-32 Inch Monitor|9Kg Screen Capacity|Spring Assisted Premium Wooden Metal Desk Mount-(Single Screen)</t>
   </si>
   <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
     <t>B0DP3194QN</t>
   </si>
   <si>
     <t>White Mulberry |DIY| Heavy-Duty Mechanical Spring Monitor Arm | Desk Mounted Monitor Stand for 17-45 Inch Monitor |16Kg Screen Capacity|VESA 75X75&amp;100X100|Adjustable Desk Mount-(Single Screen)</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Model</t>
+    <t>FBA79476</t>
+  </si>
+  <si>
+    <t>WM-GS1M-BK</t>
+  </si>
+  <si>
+    <t>Enertia</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Ordered Units</t>
+  </si>
+  <si>
+    <t>B0DB5W4TCP</t>
+  </si>
+  <si>
+    <t>White Mulberry |DIY| Height Adjustable Monitor Arm | Desk Mounted Stand for 15-32 Inch Monitor | 10Kg Screen Load | VESA 75X75 &amp; 100X100 | Adjustable Metal Desk Monitor Mount - (Single Screen)</t>
+  </si>
+  <si>
+    <t>FBA79613</t>
+  </si>
+  <si>
+    <t>MS1ML</t>
+  </si>
+  <si>
+    <t>FBA79617</t>
+  </si>
+  <si>
+    <t>HDWF1ML</t>
+  </si>
+  <si>
+    <t>FBA79478</t>
+  </si>
+  <si>
+    <t>WM-HA1M-BK</t>
+  </si>
+  <si>
+    <t>FBA79616</t>
+  </si>
+  <si>
+    <t>HD1ML</t>
   </si>
   <si>
     <t>FBA79612</t>
   </si>
   <si>
     <t>WM1ML</t>
-  </si>
-  <si>
-    <t>FBA79613</t>
-  </si>
-  <si>
-    <t>MS1ML</t>
-  </si>
-  <si>
-    <t>FBA79476</t>
-  </si>
-  <si>
-    <t>WM-GS1M-BK</t>
-  </si>
-  <si>
-    <t>FBA79617</t>
-  </si>
-  <si>
-    <t>HDWF1ML</t>
-  </si>
-  <si>
-    <t>FBA79616</t>
-  </si>
-  <si>
-    <t>HD1ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +175,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -152,12 +189,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -187,13 +230,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -201,6 +259,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,11 +579,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFCE879-280C-4E5F-92D0-2856EC6FD320}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3336DB1B-3580-4274-BC99-50EFBD4F5EF4}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:B6"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1872.0338983050849</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFCE879-280C-4E5F-92D0-2856EC6FD320}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,145 +698,548 @@
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4">
-        <v>82991.62</v>
-      </c>
-      <c r="G2" s="5">
-        <v>35</v>
+      <c r="F2" s="9">
+        <v>99114.3</v>
+      </c>
+      <c r="G2" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4">
-        <v>75200</v>
-      </c>
-      <c r="G3" s="5">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9">
+        <v>67423.78</v>
+      </c>
+      <c r="G3" s="10">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4">
-        <v>56142.32</v>
-      </c>
-      <c r="G4" s="5">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7855.92</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4">
-        <v>50813.599999999999</v>
-      </c>
-      <c r="G5" s="5">
-        <v>20</v>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1397.46</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="4">
-        <v>6438.98</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998B2A50-6942-45EF-91DE-24539BE68CC0}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1906.7796610169491</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7945</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F3" xr:uid="{998B2A50-6942-45EF-91DE-24539BE68CC0}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/raw/sales/Week 5/White_Mulberry/other_channels.xlsx
+++ b/data/raw/sales/Week 5/White_Mulberry/other_channels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 5\White_Mulberry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73ADF66-1E0E-4A7B-BC59-04F62E693161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F71FC49-3EE1-4306-B10F-4D01C58E90D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00DB3424-A17B-4A18-BC6A-329A1F1119CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00DB3424-A17B-4A18-BC6A-329A1F1119CF}"/>
   </bookViews>
   <sheets>
     <sheet name="BI Worldwide" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Brand</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>Enertia</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Ordered Units</t>
   </si>
   <si>
     <t>B0DB5W4TCP</t>
@@ -582,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3336DB1B-3580-4274-BC99-50EFBD4F5EF4}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -686,7 +680,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -746,10 +740,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -769,10 +763,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -792,16 +786,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -815,10 +809,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -838,10 +832,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -917,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998B2A50-6942-45EF-91DE-24539BE68CC0}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
